--- a/data/trans_orig/Q20C_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q20C_R-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6C158F4-302F-4022-B62A-49307C514997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{59091674-1B88-457D-A55F-8DFD4E6F0017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5DD86A6B-BC1B-4068-AD70-84C41A58B960}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7869EF51-E76C-4CA6-950B-B8CD1A47258E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="697">
   <si>
     <t>Tiempo de espera en meses para ser hospitalizado, en cuartiles en 2007 (Tasa respuesta: 1,32%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Cuarto Cuartil</t>
@@ -104,31 +104,31 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>16,8%</t>
   </si>
   <si>
-    <t>67,67%</t>
+    <t>70,88%</t>
   </si>
   <si>
     <t>42,89%</t>
   </si>
   <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
   </si>
   <si>
     <t>30,63%</t>
   </si>
   <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>61,5%</t>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>60,53%</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -137,1942 +137,1978 @@
     <t>13,32%</t>
   </si>
   <si>
-    <t>60,37%</t>
+    <t>66,2%</t>
   </si>
   <si>
     <t>7,06%</t>
   </si>
   <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>48,63%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>76,45%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>44,51%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>71,9%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>66,9%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>57,43%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>55,2%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>56,64%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>69,25%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>57,45%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
+  </si>
+  <si>
     <t>29,16%</t>
   </si>
   <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>54,44%</t>
-  </si>
-  <si>
-    <t>48,63%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>49,24%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>51,89%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>62,62%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>55,86%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
+  </si>
+  <si>
+    <t>44,91%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>63,62%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>64,48%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>65,26%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>42,5%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
+  </si>
+  <si>
+    <t>44,48%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>69,81%</t>
+  </si>
+  <si>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>55,74%</t>
+  </si>
+  <si>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>65,48%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>56,65%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Tiempo de espera en meses para ser hospitalizado, en cuartiles en 2012 (Tasa respuesta: 1,98%)</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>50,45%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>50,36%</t>
+  </si>
+  <si>
+    <t>46,16%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>75,94%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>66,64%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>50,42%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>68,69%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>69,93%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>54,03%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>68,34%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>47,74%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>61,13%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>67,43%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>61,78%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>53,97%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>63,31%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>60,04%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>53,89%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>47,32%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>49,5%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>75,96%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>47,91%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>52,19%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>59,88%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>52,75%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>51,84%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>52,18%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>44,88%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>69,57%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>57,58%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>62,1%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>59,64%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>59,03%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>Tiempo de espera en meses para ser hospitalizado, en cuartiles en 2016 (Tasa respuesta: 1,55%)</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>59,69%</t>
+  </si>
+  <si>
+    <t>51,75%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>57,46%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>44,06%</t>
+  </si>
+  <si>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>55,65%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>55,93%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>55,19%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>54,1%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>64,5%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>53,04%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>59,79%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>57,29%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>52,9%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>54,16%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>65,91%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>71,91%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>54,2%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>46,13%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>46,45%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>63,44%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>40,91%</t>
+  </si>
+  <si>
+    <t>62,77%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>59,8%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>52,34%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>46,33%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>71,48%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>48,85%</t>
+  </si>
+  <si>
+    <t>41,97%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>63,18%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>57,83%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>57,04%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>51,63%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>57,79%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>52,73%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>48,76%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>47,46%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>49,07%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
+  </si>
+  <si>
+    <t>Tiempo de espera en meses para ser hospitalizado, en cuartiles en 2023 (Tasa respuesta: 1,74%)</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>67,07%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>58,89%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>68,99%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>79,38%</t>
+  </si>
+  <si>
+    <t>70,96%</t>
+  </si>
+  <si>
+    <t>52,16%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>70,94%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>52,59%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>56,51%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>59,85%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>52,93%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
+  </si>
+  <si>
+    <t>53,84%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>70,06%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>59,17%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>51,88%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>80,41%</t>
+  </si>
+  <si>
+    <t>59,91%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>56,89%</t>
+  </si>
+  <si>
+    <t>76,73%</t>
+  </si>
+  <si>
+    <t>60,38%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>40,88%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>36,81%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>37,54%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
   </si>
   <si>
     <t>22,7%</t>
   </si>
   <si>
-    <t>76,89%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>71,5%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>66,89%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>57,04%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>55,19%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>61,8%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>72,0%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>57,55%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>79,6%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>48,57%</t>
-  </si>
-  <si>
-    <t>54,66%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>63,67%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>62,88%</t>
-  </si>
-  <si>
-    <t>55,86%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
-  </si>
-  <si>
-    <t>44,91%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>64,44%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>64,11%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>41,64%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>40,88%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>78,25%</t>
-  </si>
-  <si>
-    <t>44,48%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>76,64%</t>
-  </si>
-  <si>
-    <t>47,19%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>66,23%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>41,5%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>53,22%</t>
-  </si>
-  <si>
-    <t>51,64%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>64,74%</t>
-  </si>
-  <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Tiempo de espera en meses para ser hospitalizado, en cuartiles en 2012 (Tasa respuesta: 1,98%)</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>41,68%</t>
-  </si>
-  <si>
-    <t>46,16%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>76,34%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>64,97%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>50,42%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>68,58%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>63,78%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>47,15%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>54,15%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>60,86%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>61,78%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>66,3%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>68,51%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>58,92%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>48,84%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>42,48%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>49,5%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>78,6%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>53,14%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>51,29%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>51,84%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>61,86%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>71,62%</t>
-  </si>
-  <si>
-    <t>39,38%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>59,43%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>49,22%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>61,36%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>63,59%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>59,7%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>50,75%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>48,71%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>49,19%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
   </si>
   <si>
     <t>27,34%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>Tiempo de espera en meses para ser hospitalizado, en cuartiles en 2015 (Tasa respuesta: 1,55%)</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>60,14%</t>
-  </si>
-  <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>58,76%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>56,14%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>45,62%</t>
-  </si>
-  <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>55,65%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>56,4%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>44,33%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>65,18%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>47,74%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>65,76%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>52,85%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>58,63%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>56,35%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>45,88%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
-  </si>
-  <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>72,65%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>55,76%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>55,62%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>65,1%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>72,38%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>52,8%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>46,44%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>55,17%</t>
-  </si>
-  <si>
-    <t>52,6%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>62,97%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>59,27%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>52,99%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>44,52%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>41,97%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>78,38%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>64,25%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>57,34%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>70,16%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>42,24%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>54,74%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>59,16%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>53,95%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>59,99%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>51,47%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>63,98%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>48,61%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>Tiempo de espera en meses para ser hospitalizado, en cuartiles en 2023 (Tasa respuesta: 1,74%)</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>67,07%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>58,89%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>68,99%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>79,38%</t>
-  </si>
-  <si>
-    <t>70,96%</t>
-  </si>
-  <si>
-    <t>52,16%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>47,7%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>70,94%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>52,59%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>56,51%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>73,19%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>59,85%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>59,8%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>52,9%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>52,93%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>76,38%</t>
-  </si>
-  <si>
-    <t>53,84%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>70,06%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>59,17%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>51,88%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
-  </si>
-  <si>
-    <t>59,91%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>56,89%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>76,73%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>60,38%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>36,81%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>37,54%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
   </si>
   <si>
     <t>51,92%</t>
@@ -2505,7 +2541,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{264443F0-774D-4B51-9198-A49E33515E47}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB254672-E93F-4939-8CCC-6A4AF726E54D}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3268,10 +3304,10 @@
         <v>67</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3286,13 +3322,13 @@
         <v>1910</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -3301,13 +3337,13 @@
         <v>3134</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
@@ -3316,13 +3352,13 @@
         <v>5044</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3378,7 +3414,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3390,13 +3426,13 @@
         <v>3484</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -3405,13 +3441,13 @@
         <v>3881</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -3420,13 +3456,13 @@
         <v>7364</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3441,13 +3477,13 @@
         <v>1041</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -3456,13 +3492,13 @@
         <v>1908</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -3471,13 +3507,13 @@
         <v>2949</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3492,13 +3528,13 @@
         <v>1997</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H21" s="7">
         <v>2</v>
@@ -3507,13 +3543,13 @@
         <v>1603</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="M21" s="7">
         <v>4</v>
@@ -3522,13 +3558,13 @@
         <v>3600</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3543,13 +3579,13 @@
         <v>1988</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H22" s="7">
         <v>10</v>
@@ -3558,13 +3594,13 @@
         <v>9353</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M22" s="7">
         <v>12</v>
@@ -3573,13 +3609,13 @@
         <v>11341</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3635,7 +3671,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3647,13 +3683,13 @@
         <v>4410</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -3662,13 +3698,13 @@
         <v>1013</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M24" s="7">
         <v>6</v>
@@ -3677,13 +3713,13 @@
         <v>5423</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3698,13 +3734,13 @@
         <v>847</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -3713,13 +3749,13 @@
         <v>4757</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -3728,13 +3764,13 @@
         <v>5604</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3749,13 +3785,13 @@
         <v>844</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -3764,13 +3800,13 @@
         <v>976</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -3779,13 +3815,13 @@
         <v>1820</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3800,13 +3836,13 @@
         <v>6076</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="H27" s="7">
         <v>5</v>
@@ -3815,13 +3851,13 @@
         <v>5404</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="M27" s="7">
         <v>12</v>
@@ -3830,13 +3866,13 @@
         <v>11480</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3904,13 +3940,13 @@
         <v>8870</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H29" s="7">
         <v>9</v>
@@ -3919,13 +3955,13 @@
         <v>8690</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M29" s="7">
         <v>18</v>
@@ -3934,13 +3970,13 @@
         <v>17560</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>67</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3955,13 +3991,13 @@
         <v>3826</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="H30" s="7">
         <v>11</v>
@@ -3970,13 +4006,13 @@
         <v>10495</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="M30" s="7">
         <v>15</v>
@@ -3985,13 +4021,13 @@
         <v>14321</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4006,13 +4042,13 @@
         <v>7818</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="H31" s="7">
         <v>5</v>
@@ -4021,13 +4057,13 @@
         <v>4518</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="M31" s="7">
         <v>13</v>
@@ -4036,13 +4072,13 @@
         <v>12336</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4057,13 +4093,13 @@
         <v>12799</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H32" s="7">
         <v>26</v>
@@ -4072,13 +4108,13 @@
         <v>25309</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="M32" s="7">
         <v>40</v>
@@ -4087,13 +4123,13 @@
         <v>38107</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4149,7 +4185,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -4170,7 +4206,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49B6CE46-F27D-4CF8-8714-EAB632B26A0B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA427C1D-AD8D-4233-81EC-C7F21669BBFE}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4187,7 +4223,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4294,13 +4330,13 @@
         <v>861</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>18</v>
+        <v>181</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4309,13 +4345,13 @@
         <v>1004</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -4324,13 +4360,13 @@
         <v>1865</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4345,7 +4381,7 @@
         <v>1526</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>12</v>
@@ -4366,7 +4402,7 @@
         <v>13</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -4375,13 +4411,13 @@
         <v>1526</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>112</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4396,13 +4432,13 @@
         <v>919</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -4411,13 +4447,13 @@
         <v>3252</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>187</v>
+        <v>90</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="M6" s="7">
         <v>4</v>
@@ -4426,13 +4462,13 @@
         <v>4171</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4453,7 +4489,7 @@
         <v>13</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -4462,13 +4498,13 @@
         <v>4329</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -4477,13 +4513,13 @@
         <v>4329</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4551,13 +4587,13 @@
         <v>4088</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -4566,13 +4602,13 @@
         <v>1038</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="M9" s="7">
         <v>5</v>
@@ -4581,13 +4617,13 @@
         <v>5126</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>206</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4602,13 +4638,13 @@
         <v>2991</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -4617,13 +4653,13 @@
         <v>3038</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -4632,13 +4668,13 @@
         <v>6029</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4659,7 +4695,7 @@
         <v>13</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -4668,13 +4704,13 @@
         <v>3148</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -4683,13 +4719,13 @@
         <v>3148</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4704,13 +4740,13 @@
         <v>4410</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -4719,13 +4755,13 @@
         <v>3017</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="M12" s="7">
         <v>7</v>
@@ -4734,13 +4770,13 @@
         <v>7427</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4808,13 +4844,13 @@
         <v>5508</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>19</v>
+        <v>237</v>
       </c>
       <c r="H14" s="7">
         <v>8</v>
@@ -4823,13 +4859,13 @@
         <v>9468</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="M14" s="7">
         <v>13</v>
@@ -4838,13 +4874,13 @@
         <v>14975</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>150</v>
+        <v>242</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>209</v>
+        <v>243</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4865,7 +4901,7 @@
         <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="H15" s="7">
         <v>5</v>
@@ -4874,13 +4910,13 @@
         <v>6478</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="M15" s="7">
         <v>5</v>
@@ -4889,13 +4925,13 @@
         <v>6478</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4910,13 +4946,13 @@
         <v>2023</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -4925,13 +4961,13 @@
         <v>3065</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>254</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>247</v>
+        <v>214</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -4940,13 +4976,13 @@
         <v>5088</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4961,13 +4997,13 @@
         <v>7380</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -4976,13 +5012,13 @@
         <v>6597</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="M17" s="7">
         <v>12</v>
@@ -4991,13 +5027,13 @@
         <v>13977</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>88</v>
+        <v>264</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5053,7 +5089,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5071,7 +5107,7 @@
         <v>13</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
@@ -5080,13 +5116,13 @@
         <v>5313</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -5095,13 +5131,13 @@
         <v>5313</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5116,13 +5152,13 @@
         <v>2269</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -5131,13 +5167,13 @@
         <v>2145</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -5146,13 +5182,13 @@
         <v>4413</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5167,13 +5203,13 @@
         <v>7774</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="H21" s="7">
         <v>2</v>
@@ -5182,13 +5218,13 @@
         <v>2083</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="M21" s="7">
         <v>8</v>
@@ -5197,13 +5233,13 @@
         <v>9856</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5218,13 +5254,13 @@
         <v>4954</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>87</v>
+        <v>290</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="H22" s="7">
         <v>6</v>
@@ -5233,13 +5269,13 @@
         <v>7767</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="M22" s="7">
         <v>11</v>
@@ -5248,13 +5284,13 @@
         <v>12721</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5310,7 +5346,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5322,13 +5358,13 @@
         <v>1000</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="H24" s="7">
         <v>5</v>
@@ -5337,13 +5373,13 @@
         <v>5138</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="M24" s="7">
         <v>6</v>
@@ -5352,13 +5388,13 @@
         <v>6138</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>294</v>
+        <v>114</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5373,13 +5409,13 @@
         <v>5252</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>125</v>
+        <v>305</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -5388,13 +5424,13 @@
         <v>2034</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="M25" s="7">
         <v>7</v>
@@ -5403,13 +5439,13 @@
         <v>7287</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5424,13 +5460,13 @@
         <v>3816</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="H26" s="7">
         <v>5</v>
@@ -5439,13 +5475,13 @@
         <v>5096</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>306</v>
+        <v>158</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="M26" s="7">
         <v>9</v>
@@ -5454,13 +5490,13 @@
         <v>8911</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>245</v>
+        <v>319</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5475,13 +5511,13 @@
         <v>5012</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="H27" s="7">
         <v>7</v>
@@ -5490,13 +5526,13 @@
         <v>7150</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="M27" s="7">
         <v>12</v>
@@ -5505,13 +5541,13 @@
         <v>12162</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5579,13 +5615,13 @@
         <v>11456</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="H29" s="7">
         <v>20</v>
@@ -5594,13 +5630,13 @@
         <v>21962</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>323</v>
+        <v>22</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>324</v>
+        <v>192</v>
       </c>
       <c r="M29" s="7">
         <v>31</v>
@@ -5609,13 +5645,13 @@
         <v>33418</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5630,13 +5666,13 @@
         <v>12038</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="H30" s="7">
         <v>12</v>
@@ -5645,13 +5681,13 @@
         <v>13696</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="M30" s="7">
         <v>23</v>
@@ -5660,13 +5696,13 @@
         <v>25734</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5681,13 +5717,13 @@
         <v>14531</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>186</v>
+        <v>347</v>
       </c>
       <c r="H31" s="7">
         <v>16</v>
@@ -5696,13 +5732,13 @@
         <v>16644</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>183</v>
+        <v>349</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="M31" s="7">
         <v>29</v>
@@ -5711,13 +5747,13 @@
         <v>31175</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5732,13 +5768,13 @@
         <v>21756</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="H32" s="7">
         <v>26</v>
@@ -5747,13 +5783,13 @@
         <v>28860</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="M32" s="7">
         <v>46</v>
@@ -5762,13 +5798,13 @@
         <v>50617</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>351</v>
+        <v>190</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5824,7 +5860,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -5845,7 +5881,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B190B9D1-46FC-416B-A750-09317CE41B6F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D99F8E68-B938-4BD5-9484-6FD45DD28252}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5862,7 +5898,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5969,13 +6005,13 @@
         <v>1146</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -5984,7 +6020,7 @@
         <v>875</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
@@ -5999,13 +6035,13 @@
         <v>2021</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6020,13 +6056,13 @@
         <v>994</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -6041,7 +6077,7 @@
         <v>13</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -6050,13 +6086,13 @@
         <v>994</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6071,13 +6107,13 @@
         <v>4215</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>365</v>
+        <v>287</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -6086,7 +6122,7 @@
         <v>816</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>12</v>
@@ -6101,13 +6137,13 @@
         <v>5031</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>273</v>
+        <v>377</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6122,13 +6158,13 @@
         <v>994</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>146</v>
+        <v>379</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -6143,7 +6179,7 @@
         <v>13</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -6152,13 +6188,13 @@
         <v>994</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6226,13 +6262,13 @@
         <v>3119</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>373</v>
+        <v>309</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -6241,13 +6277,13 @@
         <v>1975</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="M9" s="7">
         <v>5</v>
@@ -6256,13 +6292,13 @@
         <v>5093</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6277,13 +6313,13 @@
         <v>2768</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -6292,13 +6328,13 @@
         <v>2241</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -6307,13 +6343,13 @@
         <v>5009</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6328,13 +6364,13 @@
         <v>2273</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -6343,13 +6379,13 @@
         <v>2462</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="M11" s="7">
         <v>4</v>
@@ -6358,13 +6394,13 @@
         <v>4735</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>242</v>
+        <v>402</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6379,13 +6415,13 @@
         <v>1943</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="H12" s="7">
         <v>4</v>
@@ -6394,13 +6430,13 @@
         <v>4503</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="M12" s="7">
         <v>6</v>
@@ -6409,13 +6445,13 @@
         <v>6446</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6483,13 +6519,13 @@
         <v>2095</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
@@ -6498,13 +6534,13 @@
         <v>4163</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="M14" s="7">
         <v>6</v>
@@ -6513,13 +6549,13 @@
         <v>6258</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6534,13 +6570,13 @@
         <v>4110</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>94</v>
+        <v>421</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="H15" s="7">
         <v>2</v>
@@ -6549,13 +6585,13 @@
         <v>2266</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="M15" s="7">
         <v>6</v>
@@ -6564,13 +6600,13 @@
         <v>6376</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>415</v>
+        <v>182</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6585,13 +6621,13 @@
         <v>2049</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -6606,7 +6642,7 @@
         <v>13</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -6615,13 +6651,13 @@
         <v>2049</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>163</v>
+        <v>429</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6636,13 +6672,13 @@
         <v>3030</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -6651,13 +6687,13 @@
         <v>7135</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
@@ -6666,13 +6702,13 @@
         <v>10165</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>131</v>
+        <v>65</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6728,7 +6764,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6740,13 +6776,13 @@
         <v>1983</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -6755,13 +6791,13 @@
         <v>2973</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -6770,13 +6806,13 @@
         <v>4956</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6791,13 +6827,13 @@
         <v>1132</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>437</v>
+        <v>448</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -6806,13 +6842,13 @@
         <v>5187</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
@@ -6821,13 +6857,13 @@
         <v>6319</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6842,13 +6878,13 @@
         <v>4772</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="H21" s="7">
         <v>3</v>
@@ -6857,13 +6893,13 @@
         <v>3608</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
       <c r="M21" s="7">
         <v>7</v>
@@ -6872,13 +6908,13 @@
         <v>8379</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>451</v>
+        <v>462</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6896,10 +6932,10 @@
         <v>27</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>453</v>
+        <v>464</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -6908,13 +6944,13 @@
         <v>1083</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>455</v>
+        <v>466</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>456</v>
+        <v>467</v>
       </c>
       <c r="M22" s="7">
         <v>4</v>
@@ -6923,13 +6959,13 @@
         <v>4565</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6985,7 +7021,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6997,13 +7033,13 @@
         <v>2800</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -7012,13 +7048,13 @@
         <v>6033</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="M24" s="7">
         <v>9</v>
@@ -7027,13 +7063,13 @@
         <v>8833</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>278</v>
+        <v>478</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7048,13 +7084,13 @@
         <v>2931</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
@@ -7066,10 +7102,10 @@
         <v>59</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="M25" s="7">
         <v>9</v>
@@ -7078,13 +7114,13 @@
         <v>9410</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>117</v>
+        <v>485</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>473</v>
+        <v>486</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>474</v>
+        <v>487</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7099,13 +7135,13 @@
         <v>3497</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>476</v>
+        <v>489</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>477</v>
+        <v>490</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -7114,13 +7150,13 @@
         <v>922</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>478</v>
+        <v>491</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>424</v>
+        <v>492</v>
       </c>
       <c r="M26" s="7">
         <v>5</v>
@@ -7129,13 +7165,13 @@
         <v>4419</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>479</v>
+        <v>493</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>480</v>
+        <v>494</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>481</v>
+        <v>495</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7150,13 +7186,13 @@
         <v>1945</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>482</v>
+        <v>496</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>483</v>
+        <v>497</v>
       </c>
       <c r="H27" s="7">
         <v>6</v>
@@ -7165,13 +7201,13 @@
         <v>7528</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>484</v>
+        <v>498</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>485</v>
+        <v>499</v>
       </c>
       <c r="M27" s="7">
         <v>8</v>
@@ -7180,13 +7216,13 @@
         <v>9473</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>486</v>
+        <v>500</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>487</v>
+        <v>501</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>488</v>
+        <v>502</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7254,13 +7290,13 @@
         <v>11143</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>489</v>
+        <v>503</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>246</v>
+        <v>504</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>490</v>
+        <v>505</v>
       </c>
       <c r="H29" s="7">
         <v>16</v>
@@ -7269,13 +7305,13 @@
         <v>16019</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>491</v>
+        <v>506</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>492</v>
+        <v>507</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>493</v>
+        <v>508</v>
       </c>
       <c r="M29" s="7">
         <v>26</v>
@@ -7284,13 +7320,13 @@
         <v>27161</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>494</v>
+        <v>509</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>495</v>
+        <v>510</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>496</v>
+        <v>511</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7305,13 +7341,13 @@
         <v>11935</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>497</v>
+        <v>512</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>498</v>
+        <v>513</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>499</v>
+        <v>514</v>
       </c>
       <c r="H30" s="7">
         <v>14</v>
@@ -7320,13 +7356,13 @@
         <v>16173</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>500</v>
+        <v>515</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>501</v>
+        <v>248</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
       <c r="M30" s="7">
         <v>25</v>
@@ -7335,13 +7371,13 @@
         <v>28108</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>503</v>
+        <v>517</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>504</v>
+        <v>518</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>71</v>
+        <v>519</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7356,13 +7392,13 @@
         <v>16806</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>505</v>
+        <v>520</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>506</v>
+        <v>521</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>507</v>
+        <v>522</v>
       </c>
       <c r="H31" s="7">
         <v>7</v>
@@ -7371,13 +7407,13 @@
         <v>7808</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>508</v>
+        <v>523</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>509</v>
+        <v>524</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>510</v>
+        <v>525</v>
       </c>
       <c r="M31" s="7">
         <v>23</v>
@@ -7386,13 +7422,13 @@
         <v>24614</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>511</v>
+        <v>435</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>512</v>
+        <v>267</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>513</v>
+        <v>526</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7407,13 +7443,13 @@
         <v>11394</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>514</v>
+        <v>527</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>246</v>
+        <v>528</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>515</v>
+        <v>529</v>
       </c>
       <c r="H32" s="7">
         <v>17</v>
@@ -7422,13 +7458,13 @@
         <v>20249</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>516</v>
+        <v>530</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>517</v>
+        <v>531</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>518</v>
+        <v>532</v>
       </c>
       <c r="M32" s="7">
         <v>28</v>
@@ -7437,13 +7473,13 @@
         <v>31644</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>519</v>
+        <v>533</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>520</v>
+        <v>534</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>521</v>
+        <v>535</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7499,7 +7535,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -7520,7 +7556,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EBB2886-1760-420D-9FCE-6812BA64804A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0A86593-3DF8-48D2-B943-19735321EF46}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7537,7 +7573,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>522</v>
+        <v>536</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7644,13 +7680,13 @@
         <v>456</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>523</v>
+        <v>537</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>524</v>
+        <v>538</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -7659,7 +7695,7 @@
         <v>435</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>525</v>
+        <v>539</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
@@ -7674,13 +7710,13 @@
         <v>891</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>526</v>
+        <v>540</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>527</v>
+        <v>541</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7695,13 +7731,13 @@
         <v>672</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>528</v>
+        <v>542</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>529</v>
+        <v>543</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -7710,7 +7746,7 @@
         <v>967</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>530</v>
+        <v>544</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>12</v>
@@ -7725,13 +7761,13 @@
         <v>1639</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>531</v>
+        <v>545</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>532</v>
+        <v>546</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7752,7 +7788,7 @@
         <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -7767,7 +7803,7 @@
         <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -7797,7 +7833,7 @@
         <v>2758</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>533</v>
+        <v>547</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
@@ -7818,7 +7854,7 @@
         <v>13</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -7827,13 +7863,13 @@
         <v>2759</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>534</v>
+        <v>548</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>535</v>
+        <v>549</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7901,13 +7937,13 @@
         <v>1768</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>536</v>
+        <v>550</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>537</v>
+        <v>551</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>538</v>
+        <v>552</v>
       </c>
       <c r="H9" s="7">
         <v>4</v>
@@ -7916,13 +7952,13 @@
         <v>2046</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>539</v>
+        <v>553</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>540</v>
+        <v>554</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>541</v>
+        <v>555</v>
       </c>
       <c r="M9" s="7">
         <v>7</v>
@@ -7931,13 +7967,13 @@
         <v>3814</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>542</v>
+        <v>556</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>543</v>
+        <v>557</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7952,13 +7988,13 @@
         <v>2132</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>544</v>
+        <v>558</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>545</v>
+        <v>559</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>546</v>
+        <v>560</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -7967,13 +8003,13 @@
         <v>1687</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>547</v>
+        <v>561</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>548</v>
+        <v>562</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>549</v>
+        <v>563</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -7982,13 +8018,13 @@
         <v>3819</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>550</v>
+        <v>564</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>448</v>
+        <v>565</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>551</v>
+        <v>566</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8003,13 +8039,13 @@
         <v>3700</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>552</v>
+        <v>567</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>553</v>
+        <v>568</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>554</v>
+        <v>569</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -8018,13 +8054,13 @@
         <v>1680</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>555</v>
+        <v>570</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>556</v>
+        <v>571</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>557</v>
+        <v>572</v>
       </c>
       <c r="M11" s="7">
         <v>6</v>
@@ -8033,13 +8069,13 @@
         <v>5379</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>558</v>
+        <v>573</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>559</v>
+        <v>80</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>560</v>
+        <v>574</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8054,13 +8090,13 @@
         <v>2984</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>561</v>
+        <v>575</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>562</v>
+        <v>576</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>563</v>
+        <v>577</v>
       </c>
       <c r="H12" s="7">
         <v>7</v>
@@ -8069,13 +8105,13 @@
         <v>4496</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>564</v>
+        <v>578</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>565</v>
+        <v>579</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>566</v>
+        <v>580</v>
       </c>
       <c r="M12" s="7">
         <v>11</v>
@@ -8084,13 +8120,13 @@
         <v>7480</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>567</v>
+        <v>581</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>568</v>
+        <v>582</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>569</v>
+        <v>583</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8158,13 +8194,13 @@
         <v>3355</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>570</v>
+        <v>584</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>571</v>
+        <v>585</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>572</v>
+        <v>440</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -8173,13 +8209,13 @@
         <v>445</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>573</v>
+        <v>586</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>574</v>
+        <v>587</v>
       </c>
       <c r="M14" s="7">
         <v>7</v>
@@ -8188,7 +8224,7 @@
         <v>3801</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>52</v>
@@ -8215,7 +8251,7 @@
         <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>575</v>
+        <v>588</v>
       </c>
       <c r="H15" s="7">
         <v>7</v>
@@ -8227,10 +8263,10 @@
         <v>14</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>576</v>
+        <v>589</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>577</v>
+        <v>405</v>
       </c>
       <c r="M15" s="7">
         <v>7</v>
@@ -8239,13 +8275,13 @@
         <v>3521</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8260,13 +8296,13 @@
         <v>2098</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>565</v>
+        <v>579</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -8275,13 +8311,13 @@
         <v>1244</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -8290,13 +8326,13 @@
         <v>3342</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>584</v>
+        <v>596</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8311,13 +8347,13 @@
         <v>6132</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
       <c r="H17" s="7">
         <v>10</v>
@@ -8326,13 +8362,13 @@
         <v>6307</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>591</v>
+        <v>603</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
       <c r="M17" s="7">
         <v>17</v>
@@ -8341,13 +8377,13 @@
         <v>12439</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>593</v>
+        <v>605</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>594</v>
+        <v>606</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8403,7 +8439,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -8415,13 +8451,13 @@
         <v>2348</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>597</v>
+        <v>609</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
@@ -8430,13 +8466,13 @@
         <v>2147</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>598</v>
+        <v>610</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>599</v>
+        <v>611</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>600</v>
+        <v>612</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -8445,13 +8481,13 @@
         <v>4495</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>544</v>
+        <v>558</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>601</v>
+        <v>613</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>602</v>
+        <v>614</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8466,13 +8502,13 @@
         <v>907</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>603</v>
+        <v>615</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>604</v>
+        <v>616</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -8481,13 +8517,13 @@
         <v>886</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -8496,13 +8532,13 @@
         <v>1793</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>607</v>
+        <v>619</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>608</v>
+        <v>620</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>609</v>
+        <v>621</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8517,13 +8553,13 @@
         <v>3328</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>610</v>
+        <v>622</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>611</v>
+        <v>623</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>612</v>
+        <v>624</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -8538,7 +8574,7 @@
         <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="M21" s="7">
         <v>4</v>
@@ -8547,13 +8583,13 @@
         <v>3329</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>613</v>
+        <v>625</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>614</v>
+        <v>626</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8568,13 +8604,13 @@
         <v>8157</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>615</v>
+        <v>627</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>616</v>
+        <v>628</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>617</v>
+        <v>629</v>
       </c>
       <c r="H22" s="7">
         <v>6</v>
@@ -8583,13 +8619,13 @@
         <v>4534</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>618</v>
+        <v>630</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>619</v>
+        <v>631</v>
       </c>
       <c r="M22" s="7">
         <v>13</v>
@@ -8598,13 +8634,13 @@
         <v>12691</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>620</v>
+        <v>632</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>621</v>
+        <v>128</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>622</v>
+        <v>633</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8660,7 +8696,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -8672,13 +8708,13 @@
         <v>7353</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>623</v>
+        <v>277</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>624</v>
+        <v>634</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -8687,13 +8723,13 @@
         <v>3693</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>625</v>
+        <v>635</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>626</v>
+        <v>636</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>627</v>
+        <v>637</v>
       </c>
       <c r="M24" s="7">
         <v>14</v>
@@ -8702,13 +8738,13 @@
         <v>11045</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>628</v>
+        <v>638</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>629</v>
+        <v>639</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>630</v>
+        <v>640</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8723,13 +8759,13 @@
         <v>4655</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>631</v>
+        <v>641</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>632</v>
+        <v>642</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
@@ -8738,13 +8774,13 @@
         <v>3414</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>317</v>
+        <v>643</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>633</v>
+        <v>644</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>634</v>
+        <v>645</v>
       </c>
       <c r="M25" s="7">
         <v>12</v>
@@ -8753,13 +8789,13 @@
         <v>8069</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>635</v>
+        <v>646</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>636</v>
+        <v>647</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>637</v>
+        <v>648</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8774,13 +8810,13 @@
         <v>3593</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>638</v>
+        <v>649</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>639</v>
+        <v>650</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>640</v>
+        <v>651</v>
       </c>
       <c r="H26" s="7">
         <v>6</v>
@@ -8789,13 +8825,13 @@
         <v>3535</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>641</v>
+        <v>652</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>642</v>
+        <v>653</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>115</v>
+        <v>654</v>
       </c>
       <c r="M26" s="7">
         <v>12</v>
@@ -8804,13 +8840,13 @@
         <v>7128</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>643</v>
+        <v>655</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>644</v>
+        <v>656</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>645</v>
+        <v>657</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8825,13 +8861,13 @@
         <v>3066</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>646</v>
+        <v>658</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>647</v>
+        <v>659</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>648</v>
+        <v>660</v>
       </c>
       <c r="H27" s="7">
         <v>10</v>
@@ -8840,13 +8876,13 @@
         <v>6199</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>649</v>
+        <v>661</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>650</v>
+        <v>662</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>61</v>
+        <v>473</v>
       </c>
       <c r="M27" s="7">
         <v>15</v>
@@ -8855,13 +8891,13 @@
         <v>9265</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>651</v>
+        <v>663</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>652</v>
+        <v>664</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8929,13 +8965,13 @@
         <v>15279</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>653</v>
+        <v>665</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>654</v>
+        <v>666</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>655</v>
+        <v>667</v>
       </c>
       <c r="H29" s="7">
         <v>17</v>
@@ -8944,13 +8980,13 @@
         <v>8767</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>656</v>
+        <v>668</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>657</v>
+        <v>450</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>658</v>
+        <v>669</v>
       </c>
       <c r="M29" s="7">
         <v>37</v>
@@ -8959,13 +8995,13 @@
         <v>24046</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>659</v>
+        <v>670</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>660</v>
+        <v>671</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>661</v>
+        <v>672</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8980,13 +9016,13 @@
         <v>8366</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>662</v>
+        <v>673</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>663</v>
+        <v>674</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>47</v>
+        <v>675</v>
       </c>
       <c r="H30" s="7">
         <v>19</v>
@@ -8995,13 +9031,13 @@
         <v>10475</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>664</v>
+        <v>676</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>665</v>
+        <v>478</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>666</v>
+        <v>677</v>
       </c>
       <c r="M30" s="7">
         <v>31</v>
@@ -9010,13 +9046,13 @@
         <v>18841</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>667</v>
+        <v>678</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>668</v>
+        <v>679</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9031,13 +9067,13 @@
         <v>12719</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>669</v>
+        <v>680</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>670</v>
+        <v>681</v>
       </c>
       <c r="H31" s="7">
         <v>11</v>
@@ -9046,13 +9082,13 @@
         <v>6458</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>671</v>
+        <v>682</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>672</v>
+        <v>683</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>673</v>
+        <v>684</v>
       </c>
       <c r="M31" s="7">
         <v>26</v>
@@ -9061,13 +9097,13 @@
         <v>19178</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>674</v>
+        <v>685</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>675</v>
+        <v>686</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>676</v>
+        <v>687</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9082,13 +9118,13 @@
         <v>23097</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>351</v>
+        <v>689</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>678</v>
+        <v>690</v>
       </c>
       <c r="H32" s="7">
         <v>33</v>
@@ -9097,13 +9133,13 @@
         <v>21535</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>679</v>
+        <v>691</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>680</v>
+        <v>692</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>681</v>
+        <v>693</v>
       </c>
       <c r="M32" s="7">
         <v>58</v>
@@ -9112,13 +9148,13 @@
         <v>44633</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>682</v>
+        <v>694</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>683</v>
+        <v>695</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>684</v>
+        <v>696</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9174,7 +9210,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q20C_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q20C_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59091674-1B88-457D-A55F-8DFD4E6F0017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{831A66DB-EF22-4EC2-9334-F74BAF0313BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7869EF51-E76C-4CA6-950B-B8CD1A47258E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E0F4F06D-59B1-47AA-AC7D-A69E7F2D6D9B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="697">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="693">
   <si>
     <t>Tiempo de espera en meses para ser hospitalizado, en cuartiles en 2007 (Tasa respuesta: 1,32%)</t>
   </si>
@@ -110,2026 +110,2014 @@
     <t>16,8%</t>
   </si>
   <si>
-    <t>70,88%</t>
+    <t>67,1%</t>
   </si>
   <si>
     <t>42,89%</t>
   </si>
   <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>72,57%</t>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
   </si>
   <si>
     <t>30,63%</t>
   </si>
   <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>54,58%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>60,37%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
+  </si>
+  <si>
+    <t>48,63%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>76,65%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>44,59%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>73,32%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>67,08%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>56,65%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>68,8%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>58,37%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>62,62%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>62,96%</t>
+  </si>
+  <si>
+    <t>55,86%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>44,91%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>65,14%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>64,47%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>42,65%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>66,44%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>44,48%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>76,86%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>44,76%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>65,42%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>56,95%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Tiempo de espera en meses para ser hospitalizado, en cuartiles en 2012 (Tasa respuesta: 1,98%)</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>58,19%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>46,16%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>65,78%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>50,42%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>65,4%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>64,0%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>54,92%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>60,89%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>61,21%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>66,78%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>68,04%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>53,95%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>64,43%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>59,61%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>48,46%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>42,64%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>49,5%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>77,19%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>52,18%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>59,1%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>51,84%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>51,57%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>44,88%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>71,01%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>59,41%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>61,44%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>52,34%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>60,78%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>62,52%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>52,97%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>50,58%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>47,91%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>Tiempo de espera en meses para ser hospitalizado, en cuartiles en 2016 (Tasa respuesta: 1,55%)</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>63,84%</t>
+  </si>
+  <si>
+    <t>51,75%</t>
+  </si>
+  <si>
+    <t>57,71%</t>
+  </si>
+  <si>
+    <t>56,49%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>55,65%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>55,82%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>45,28%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>66,9%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>46,64%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>68,6%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>52,37%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>50,47%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>62,05%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>46,93%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>62,41%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>71,41%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>52,48%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>55,76%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>60,33%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>65,16%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>48,05%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>63,04%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>40,91%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>60,19%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>59,38%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>43,84%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>71,51%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>49,77%</t>
+  </si>
+  <si>
+    <t>41,97%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>71,79%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>60,52%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>55,92%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>67,66%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>59,29%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>52,76%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>44,84%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>59,58%</t>
+  </si>
+  <si>
+    <t>55,37%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>47,98%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>58,27%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>51,02%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>39,99%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>Tiempo de espera en meses para ser hospitalizado, en cuartiles en 2023 (Tasa respuesta: 1,74%)</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>67,07%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>58,89%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>68,99%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>79,38%</t>
+  </si>
+  <si>
+    <t>70,96%</t>
+  </si>
+  <si>
+    <t>52,16%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>52,06%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
     <t>7,66%</t>
   </si>
   <si>
-    <t>60,53%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>66,2%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
-  </si>
-  <si>
-    <t>48,63%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>76,45%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>44,51%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>71,9%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>66,9%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>57,43%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>55,2%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>56,64%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>69,25%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>57,45%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>46,71%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>49,24%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>51,89%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>62,62%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>55,86%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>44,91%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>63,62%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>64,48%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>65,26%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>42,5%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>78,01%</t>
-  </si>
-  <si>
-    <t>44,48%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>69,81%</t>
-  </si>
-  <si>
-    <t>47,19%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>66,59%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>55,74%</t>
-  </si>
-  <si>
-    <t>51,64%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>65,48%</t>
-  </si>
-  <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Tiempo de espera en meses para ser hospitalizado, en cuartiles en 2012 (Tasa respuesta: 1,98%)</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>50,45%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>50,36%</t>
-  </si>
-  <si>
-    <t>46,16%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>75,94%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>66,64%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>50,42%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>69,93%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>71,56%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>42,41%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>57,0%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>58,17%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>57,93%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>53,68%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>52,93%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>53,84%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>72,04%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
   </si>
   <si>
     <t>7,7%</t>
   </si>
   <si>
-    <t>54,03%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>68,34%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>47,74%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>67,43%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>61,78%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>53,97%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>63,31%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>60,04%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>53,89%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>47,32%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>49,5%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>75,96%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>47,91%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>52,19%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>59,88%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>52,75%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
+    <t>61,43%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>51,65%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
+  </si>
+  <si>
+    <t>59,91%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>56,89%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
   </si>
   <si>
     <t>39,39%</t>
   </si>
   <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>51,84%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>52,18%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>67,71%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>39,38%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>57,58%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>62,1%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>51,08%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>49,15%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>59,64%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>59,03%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>51,59%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>44,66%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>36,81%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
   </si>
   <si>
     <t>11,02%</t>
   </si>
   <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>Tiempo de espera en meses para ser hospitalizado, en cuartiles en 2016 (Tasa respuesta: 1,55%)</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>59,69%</t>
-  </si>
-  <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>57,46%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>44,06%</t>
-  </si>
-  <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>55,65%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>55,93%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>55,19%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>67,94%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>54,1%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>64,5%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>53,04%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>48,57%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>59,79%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>52,9%</t>
-  </si>
-  <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>54,16%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>65,91%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>71,91%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>54,2%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>46,45%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>63,44%</t>
-  </si>
-  <si>
-    <t>52,6%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>62,77%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>59,8%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>52,34%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>44,74%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>71,48%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>48,85%</t>
-  </si>
-  <si>
-    <t>41,97%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>63,18%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>68,35%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>57,04%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>51,63%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>57,79%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>52,73%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>48,76%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>63,53%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>60,29%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>49,07%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>Tiempo de espera en meses para ser hospitalizado, en cuartiles en 2023 (Tasa respuesta: 1,74%)</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>67,07%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>58,89%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>68,99%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>79,38%</t>
-  </si>
-  <si>
-    <t>70,96%</t>
-  </si>
-  <si>
-    <t>52,16%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>47,7%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
   </si>
   <si>
     <t>7,3%</t>
   </si>
   <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>70,94%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>52,59%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>56,51%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>73,19%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>59,85%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>52,93%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>76,38%</t>
-  </si>
-  <si>
-    <t>53,84%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>70,06%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>59,17%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>51,88%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
-  </si>
-  <si>
-    <t>59,91%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>56,89%</t>
-  </si>
-  <si>
-    <t>76,73%</t>
-  </si>
-  <si>
-    <t>60,38%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>40,88%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>36,81%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>37,54%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
+    <t>22,9%</t>
   </si>
   <si>
     <t>17,97%</t>
   </si>
   <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
   </si>
   <si>
     <t>38,84%</t>
   </si>
   <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>51,92%</t>
+    <t>27,6%</t>
   </si>
   <si>
     <t>45,59%</t>
   </si>
   <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>57,61%</t>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>58,44%</t>
   </si>
   <si>
     <t>41,83%</t>
   </si>
   <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
+    <t>50,4%</t>
   </si>
 </sst>
 </file>
@@ -2541,7 +2529,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB254672-E93F-4939-8CCC-6A4AF726E54D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CDC66B3-E11E-414B-84E2-3747ABF9F021}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3866,13 +3854,13 @@
         <v>11480</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3940,13 +3928,13 @@
         <v>8870</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H29" s="7">
         <v>9</v>
@@ -3955,13 +3943,13 @@
         <v>8690</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M29" s="7">
         <v>18</v>
@@ -3970,13 +3958,13 @@
         <v>17560</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3991,13 +3979,13 @@
         <v>3826</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H30" s="7">
         <v>11</v>
@@ -4006,13 +3994,13 @@
         <v>10495</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M30" s="7">
         <v>15</v>
@@ -4021,13 +4009,13 @@
         <v>14321</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4042,13 +4030,13 @@
         <v>7818</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H31" s="7">
         <v>5</v>
@@ -4057,13 +4045,13 @@
         <v>4518</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M31" s="7">
         <v>13</v>
@@ -4072,13 +4060,13 @@
         <v>12336</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4093,13 +4081,13 @@
         <v>12799</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H32" s="7">
         <v>26</v>
@@ -4108,13 +4096,13 @@
         <v>25309</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M32" s="7">
         <v>40</v>
@@ -4123,13 +4111,13 @@
         <v>38107</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4185,7 +4173,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -4206,7 +4194,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA427C1D-AD8D-4233-81EC-C7F21669BBFE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93056AA2-D6E5-4BFB-9DD7-43B855D97A64}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4223,7 +4211,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4330,13 +4318,13 @@
         <v>861</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>181</v>
+        <v>18</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4345,13 +4333,13 @@
         <v>1004</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -4360,13 +4348,13 @@
         <v>1865</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4381,7 +4369,7 @@
         <v>1526</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>12</v>
@@ -4402,7 +4390,7 @@
         <v>13</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -4411,13 +4399,13 @@
         <v>1526</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4432,13 +4420,13 @@
         <v>919</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -4447,13 +4435,13 @@
         <v>3252</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>90</v>
+        <v>190</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M6" s="7">
         <v>4</v>
@@ -4462,13 +4450,13 @@
         <v>4171</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4489,7 +4477,7 @@
         <v>13</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -4498,13 +4486,13 @@
         <v>4329</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -4513,13 +4501,13 @@
         <v>4329</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4587,13 +4575,13 @@
         <v>4088</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>205</v>
+        <v>161</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -4602,13 +4590,13 @@
         <v>1038</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M9" s="7">
         <v>5</v>
@@ -4617,13 +4605,13 @@
         <v>5126</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>43</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4638,13 +4626,13 @@
         <v>2991</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -4653,13 +4641,13 @@
         <v>3038</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -4668,13 +4656,13 @@
         <v>6029</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4695,7 +4683,7 @@
         <v>13</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -4704,13 +4692,13 @@
         <v>3148</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -4719,13 +4707,13 @@
         <v>3148</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4740,13 +4728,13 @@
         <v>4410</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -4755,13 +4743,13 @@
         <v>3017</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>230</v>
+        <v>97</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="M12" s="7">
         <v>7</v>
@@ -4770,13 +4758,13 @@
         <v>7427</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4844,13 +4832,13 @@
         <v>5508</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H14" s="7">
         <v>8</v>
@@ -4859,13 +4847,13 @@
         <v>9468</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="M14" s="7">
         <v>13</v>
@@ -4874,13 +4862,13 @@
         <v>14975</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4901,7 +4889,7 @@
         <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>244</v>
+        <v>142</v>
       </c>
       <c r="H15" s="7">
         <v>5</v>
@@ -4910,13 +4898,13 @@
         <v>6478</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>246</v>
+        <v>165</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="M15" s="7">
         <v>5</v>
@@ -4925,13 +4913,13 @@
         <v>6478</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4946,13 +4934,13 @@
         <v>2023</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -4961,13 +4949,13 @@
         <v>3065</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>214</v>
+        <v>249</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -4976,13 +4964,13 @@
         <v>5088</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4997,13 +4985,13 @@
         <v>7380</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -5012,13 +5000,13 @@
         <v>6597</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="M17" s="7">
         <v>12</v>
@@ -5027,13 +5015,13 @@
         <v>13977</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5107,7 +5095,7 @@
         <v>13</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
@@ -5116,13 +5104,13 @@
         <v>5313</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -5131,13 +5119,13 @@
         <v>5313</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5152,13 +5140,13 @@
         <v>2269</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -5167,13 +5155,13 @@
         <v>2145</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -5182,13 +5170,13 @@
         <v>4413</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5203,13 +5191,13 @@
         <v>7774</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="H21" s="7">
         <v>2</v>
@@ -5218,13 +5206,13 @@
         <v>2083</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="M21" s="7">
         <v>8</v>
@@ -5233,13 +5221,13 @@
         <v>9856</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5254,13 +5242,13 @@
         <v>4954</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="H22" s="7">
         <v>6</v>
@@ -5269,13 +5257,13 @@
         <v>7767</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="M22" s="7">
         <v>11</v>
@@ -5284,13 +5272,13 @@
         <v>12721</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5358,13 +5346,13 @@
         <v>1000</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="H24" s="7">
         <v>5</v>
@@ -5373,13 +5361,13 @@
         <v>5138</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>301</v>
+        <v>156</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="M24" s="7">
         <v>6</v>
@@ -5388,13 +5376,13 @@
         <v>6138</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>114</v>
+        <v>52</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5409,13 +5397,13 @@
         <v>5252</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -5424,13 +5412,13 @@
         <v>2034</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="M25" s="7">
         <v>7</v>
@@ -5439,13 +5427,13 @@
         <v>7287</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5460,13 +5448,13 @@
         <v>3816</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="H26" s="7">
         <v>5</v>
@@ -5475,13 +5463,13 @@
         <v>5096</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>158</v>
+        <v>310</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="M26" s="7">
         <v>9</v>
@@ -5490,13 +5478,13 @@
         <v>8911</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>317</v>
+        <v>151</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5511,13 +5499,13 @@
         <v>5012</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="H27" s="7">
         <v>7</v>
@@ -5526,13 +5514,13 @@
         <v>7150</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="M27" s="7">
         <v>12</v>
@@ -5541,13 +5529,13 @@
         <v>12162</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5615,13 +5603,13 @@
         <v>11456</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="H29" s="7">
         <v>20</v>
@@ -5630,13 +5618,13 @@
         <v>21962</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>22</v>
+        <v>327</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>192</v>
+        <v>328</v>
       </c>
       <c r="M29" s="7">
         <v>31</v>
@@ -5645,13 +5633,13 @@
         <v>33418</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5666,13 +5654,13 @@
         <v>12038</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="H30" s="7">
         <v>12</v>
@@ -5681,13 +5669,13 @@
         <v>13696</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="M30" s="7">
         <v>23</v>
@@ -5696,13 +5684,13 @@
         <v>25734</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5717,13 +5705,13 @@
         <v>14531</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="H31" s="7">
         <v>16</v>
@@ -5732,13 +5720,13 @@
         <v>16644</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="M31" s="7">
         <v>29</v>
@@ -5747,13 +5735,13 @@
         <v>31175</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5768,13 +5756,13 @@
         <v>21756</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="H32" s="7">
         <v>26</v>
@@ -5783,13 +5771,13 @@
         <v>28860</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="M32" s="7">
         <v>46</v>
@@ -5798,13 +5786,13 @@
         <v>50617</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>190</v>
+        <v>357</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5860,7 +5848,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -5881,7 +5869,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D99F8E68-B938-4BD5-9484-6FD45DD28252}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25B70768-E443-48A1-9C33-224F80F2E565}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5898,7 +5886,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6005,13 +5993,13 @@
         <v>1146</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -6020,7 +6008,7 @@
         <v>875</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
@@ -6035,13 +6023,13 @@
         <v>2021</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>366</v>
+        <v>47</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6056,13 +6044,13 @@
         <v>994</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>368</v>
+        <v>282</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -6077,7 +6065,7 @@
         <v>13</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -6086,13 +6074,13 @@
         <v>994</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6107,13 +6095,13 @@
         <v>4215</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>287</v>
+        <v>122</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -6122,7 +6110,7 @@
         <v>816</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>375</v>
+        <v>296</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>12</v>
@@ -6137,13 +6125,13 @@
         <v>5031</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6158,13 +6146,13 @@
         <v>994</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -6179,7 +6167,7 @@
         <v>13</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -6188,13 +6176,13 @@
         <v>994</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6262,13 +6250,13 @@
         <v>3119</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>309</v>
+        <v>377</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -6277,13 +6265,13 @@
         <v>1975</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="M9" s="7">
         <v>5</v>
@@ -6292,13 +6280,13 @@
         <v>5093</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6313,13 +6301,13 @@
         <v>2768</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -6328,13 +6316,13 @@
         <v>2241</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -6343,13 +6331,13 @@
         <v>5009</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6364,13 +6352,13 @@
         <v>2273</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>398</v>
+        <v>364</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -6379,13 +6367,13 @@
         <v>2462</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="M11" s="7">
         <v>4</v>
@@ -6394,13 +6382,13 @@
         <v>4735</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6415,13 +6403,13 @@
         <v>1943</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="H12" s="7">
         <v>4</v>
@@ -6430,13 +6418,13 @@
         <v>4503</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="M12" s="7">
         <v>6</v>
@@ -6445,13 +6433,13 @@
         <v>6446</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6519,13 +6507,13 @@
         <v>2095</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
@@ -6534,13 +6522,13 @@
         <v>4163</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="M14" s="7">
         <v>6</v>
@@ -6549,13 +6537,13 @@
         <v>6258</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6570,13 +6558,13 @@
         <v>4110</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="H15" s="7">
         <v>2</v>
@@ -6585,13 +6573,13 @@
         <v>2266</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="M15" s="7">
         <v>6</v>
@@ -6600,13 +6588,13 @@
         <v>6376</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6621,13 +6609,13 @@
         <v>2049</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -6642,7 +6630,7 @@
         <v>13</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -6651,13 +6639,13 @@
         <v>2049</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6672,13 +6660,13 @@
         <v>3030</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -6687,13 +6675,13 @@
         <v>7135</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
@@ -6702,13 +6690,13 @@
         <v>10165</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>65</v>
+        <v>432</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6776,13 +6764,13 @@
         <v>1983</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -6791,13 +6779,13 @@
         <v>2973</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -6806,13 +6794,13 @@
         <v>4956</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6827,13 +6815,13 @@
         <v>1132</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -6842,13 +6830,13 @@
         <v>5187</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
@@ -6857,13 +6845,13 @@
         <v>6319</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6878,13 +6866,13 @@
         <v>4772</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="H21" s="7">
         <v>3</v>
@@ -6893,13 +6881,13 @@
         <v>3608</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="M21" s="7">
         <v>7</v>
@@ -6908,13 +6896,13 @@
         <v>8379</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6932,10 +6920,10 @@
         <v>27</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -6944,13 +6932,13 @@
         <v>1083</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="M22" s="7">
         <v>4</v>
@@ -6959,13 +6947,13 @@
         <v>4565</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7033,13 +7021,13 @@
         <v>2800</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -7048,13 +7036,13 @@
         <v>6033</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="M24" s="7">
         <v>9</v>
@@ -7063,13 +7051,13 @@
         <v>8833</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7084,13 +7072,13 @@
         <v>2931</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
@@ -7102,10 +7090,10 @@
         <v>59</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>483</v>
+        <v>31</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="M25" s="7">
         <v>9</v>
@@ -7114,13 +7102,13 @@
         <v>9410</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7135,13 +7123,13 @@
         <v>3497</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -7150,13 +7138,13 @@
         <v>922</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="M26" s="7">
         <v>5</v>
@@ -7165,13 +7153,13 @@
         <v>4419</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7186,13 +7174,13 @@
         <v>1945</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="H27" s="7">
         <v>6</v>
@@ -7201,13 +7189,13 @@
         <v>7528</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>499</v>
+        <v>433</v>
       </c>
       <c r="M27" s="7">
         <v>8</v>
@@ -7216,13 +7204,13 @@
         <v>9473</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7290,13 +7278,13 @@
         <v>11143</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="H29" s="7">
         <v>16</v>
@@ -7305,13 +7293,13 @@
         <v>16019</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>507</v>
+        <v>38</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="M29" s="7">
         <v>26</v>
@@ -7320,13 +7308,13 @@
         <v>27161</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7341,13 +7329,13 @@
         <v>11935</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>513</v>
+        <v>345</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="H30" s="7">
         <v>14</v>
@@ -7356,13 +7344,13 @@
         <v>16173</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>248</v>
+        <v>38</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="M30" s="7">
         <v>25</v>
@@ -7371,13 +7359,13 @@
         <v>28108</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7392,13 +7380,13 @@
         <v>16806</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="H31" s="7">
         <v>7</v>
@@ -7407,13 +7395,13 @@
         <v>7808</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="M31" s="7">
         <v>23</v>
@@ -7422,13 +7410,13 @@
         <v>24614</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>435</v>
+        <v>517</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>267</v>
+        <v>518</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7443,13 +7431,13 @@
         <v>11394</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="H32" s="7">
         <v>17</v>
@@ -7458,13 +7446,13 @@
         <v>20249</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>531</v>
+        <v>432</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="M32" s="7">
         <v>28</v>
@@ -7473,13 +7461,13 @@
         <v>31644</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7535,7 +7523,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -7556,7 +7544,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0A86593-3DF8-48D2-B943-19735321EF46}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE1AEF8E-4890-4A3A-BC63-D74E85037CD6}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7573,7 +7561,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7680,13 +7668,13 @@
         <v>456</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -7695,7 +7683,7 @@
         <v>435</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>539</v>
+        <v>244</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
@@ -7710,13 +7698,13 @@
         <v>891</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7731,13 +7719,13 @@
         <v>672</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -7746,7 +7734,7 @@
         <v>967</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>12</v>
@@ -7761,13 +7749,13 @@
         <v>1639</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7788,7 +7776,7 @@
         <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -7803,7 +7791,7 @@
         <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -7833,7 +7821,7 @@
         <v>2758</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
@@ -7854,7 +7842,7 @@
         <v>13</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -7863,13 +7851,13 @@
         <v>2759</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7937,13 +7925,13 @@
         <v>1768</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="H9" s="7">
         <v>4</v>
@@ -7952,13 +7940,13 @@
         <v>2046</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>554</v>
+        <v>221</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="M9" s="7">
         <v>7</v>
@@ -7967,13 +7955,13 @@
         <v>3814</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>481</v>
+        <v>547</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7988,13 +7976,13 @@
         <v>2132</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -8003,13 +7991,13 @@
         <v>1687</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>562</v>
+        <v>440</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -8018,13 +8006,13 @@
         <v>3819</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8039,13 +8027,13 @@
         <v>3700</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -8054,13 +8042,13 @@
         <v>1680</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>570</v>
+        <v>330</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="M11" s="7">
         <v>6</v>
@@ -8069,13 +8057,13 @@
         <v>5379</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>80</v>
+        <v>563</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8090,13 +8078,13 @@
         <v>2984</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="H12" s="7">
         <v>7</v>
@@ -8105,13 +8093,13 @@
         <v>4496</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="M12" s="7">
         <v>11</v>
@@ -8120,13 +8108,13 @@
         <v>7480</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8194,13 +8182,13 @@
         <v>3355</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>440</v>
+        <v>576</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -8209,13 +8197,13 @@
         <v>445</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="M14" s="7">
         <v>7</v>
@@ -8224,13 +8212,13 @@
         <v>3801</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>52</v>
+        <v>579</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>35</v>
+        <v>580</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8251,7 +8239,7 @@
         <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="H15" s="7">
         <v>7</v>
@@ -8263,10 +8251,10 @@
         <v>14</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>405</v>
+        <v>583</v>
       </c>
       <c r="M15" s="7">
         <v>7</v>
@@ -8275,13 +8263,13 @@
         <v>3521</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8296,13 +8284,13 @@
         <v>2098</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>579</v>
+        <v>587</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -8311,13 +8299,13 @@
         <v>1244</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -8326,13 +8314,13 @@
         <v>3342</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8347,13 +8335,13 @@
         <v>6132</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="H17" s="7">
         <v>10</v>
@@ -8362,13 +8350,13 @@
         <v>6307</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="M17" s="7">
         <v>17</v>
@@ -8377,13 +8365,13 @@
         <v>12439</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8451,13 +8439,13 @@
         <v>2348</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
@@ -8466,13 +8454,13 @@
         <v>2147</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -8481,13 +8469,13 @@
         <v>4495</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8502,13 +8490,13 @@
         <v>907</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -8517,13 +8505,13 @@
         <v>886</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -8532,13 +8520,13 @@
         <v>1793</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8553,13 +8541,13 @@
         <v>3328</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -8574,7 +8562,7 @@
         <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>244</v>
+        <v>142</v>
       </c>
       <c r="M21" s="7">
         <v>4</v>
@@ -8583,13 +8571,13 @@
         <v>3329</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>226</v>
+        <v>498</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8604,13 +8592,13 @@
         <v>8157</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="H22" s="7">
         <v>6</v>
@@ -8619,13 +8607,13 @@
         <v>4534</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>474</v>
+        <v>626</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="M22" s="7">
         <v>13</v>
@@ -8634,13 +8622,13 @@
         <v>12691</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>128</v>
+        <v>629</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8708,13 +8696,13 @@
         <v>7353</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>277</v>
+        <v>631</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>412</v>
+        <v>632</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>634</v>
+        <v>32</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -8723,13 +8711,13 @@
         <v>3693</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>635</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>636</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>637</v>
       </c>
       <c r="M24" s="7">
         <v>14</v>
@@ -8738,13 +8726,13 @@
         <v>11045</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>638</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>639</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8759,13 +8747,13 @@
         <v>4655</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>639</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>641</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>642</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
@@ -8774,13 +8762,13 @@
         <v>3414</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>643</v>
+        <v>578</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>644</v>
+        <v>125</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="M25" s="7">
         <v>12</v>
@@ -8789,13 +8777,13 @@
         <v>8069</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8810,13 +8798,13 @@
         <v>3593</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="H26" s="7">
         <v>6</v>
@@ -8825,13 +8813,13 @@
         <v>3535</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="M26" s="7">
         <v>12</v>
@@ -8840,13 +8828,13 @@
         <v>7128</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8861,13 +8849,13 @@
         <v>3066</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="H27" s="7">
         <v>10</v>
@@ -8876,13 +8864,13 @@
         <v>6199</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>473</v>
+        <v>660</v>
       </c>
       <c r="M27" s="7">
         <v>15</v>
@@ -8891,13 +8879,13 @@
         <v>9265</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8965,13 +8953,13 @@
         <v>15279</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>665</v>
+        <v>424</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="H29" s="7">
         <v>17</v>
@@ -8980,13 +8968,13 @@
         <v>8767</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>450</v>
+        <v>666</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="M29" s="7">
         <v>37</v>
@@ -8995,13 +8983,13 @@
         <v>24046</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>668</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>670</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>671</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9016,13 +9004,13 @@
         <v>8366</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>672</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>673</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>674</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>675</v>
       </c>
       <c r="H30" s="7">
         <v>19</v>
@@ -9031,13 +9019,13 @@
         <v>10475</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>478</v>
+        <v>582</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="M30" s="7">
         <v>31</v>
@@ -9046,13 +9034,13 @@
         <v>18841</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>678</v>
+        <v>88</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9067,13 +9055,13 @@
         <v>12719</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>88</v>
+        <v>678</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="H31" s="7">
         <v>11</v>
@@ -9082,13 +9070,13 @@
         <v>6458</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>680</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>681</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>682</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>683</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>684</v>
       </c>
       <c r="M31" s="7">
         <v>26</v>
@@ -9097,13 +9085,13 @@
         <v>19178</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>684</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>685</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>686</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9118,13 +9106,13 @@
         <v>23097</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>690</v>
+        <v>594</v>
       </c>
       <c r="H32" s="7">
         <v>33</v>
@@ -9133,13 +9121,13 @@
         <v>21535</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="M32" s="7">
         <v>58</v>
@@ -9148,13 +9136,13 @@
         <v>44633</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>695</v>
+        <v>511</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9210,7 +9198,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
